--- a/data/trans_orig/Q45A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q45A-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4411809-14E8-4FC4-A426-65CC9FD6827C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{990C2CF0-0D2B-4F9D-9E8E-2D24F00A203C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DB99CB59-EBC9-457F-BAA9-1A82167F597E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D3A2104E-793C-4122-BE2B-DF04C51ADEF4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -3155,7 +3155,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF48D41-7CFF-4A7D-968B-0FE276B4E9A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{797311FC-F5C8-4DA8-80C2-79897CFD9907}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4145,7 +4145,7 @@
         <v>410</v>
       </c>
       <c r="D21" s="7">
-        <v>412778</v>
+        <v>412779</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>149</v>
@@ -4451,7 +4451,7 @@
         <v>1649</v>
       </c>
       <c r="D27" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>106</v>
@@ -5694,7 +5694,7 @@
         <v>3297</v>
       </c>
       <c r="I51" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>106</v>
@@ -5742,7 +5742,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C36EB8F3-824F-443D-8654-C662F61ED10E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E6FA86-E98A-4700-B063-ABA436967BEC}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6301,7 +6301,7 @@
         <v>164</v>
       </c>
       <c r="N12" s="7">
-        <v>173768</v>
+        <v>173767</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>338</v>
@@ -6454,7 +6454,7 @@
         <v>2153</v>
       </c>
       <c r="N15" s="7">
-        <v>2310292</v>
+        <v>2310291</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>106</v>
@@ -8329,7 +8329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370A75B2-D2C2-4ECE-8DD1-67E93B351739}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D8EE47-8DE6-429C-BD34-A3BC13281E12}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8822,7 +8822,7 @@
         <v>83</v>
       </c>
       <c r="I11" s="7">
-        <v>90430</v>
+        <v>90429</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>693</v>
@@ -9026,7 +9026,7 @@
         <v>890</v>
       </c>
       <c r="I15" s="7">
-        <v>992248</v>
+        <v>992247</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>106</v>
@@ -9640,7 +9640,7 @@
         <v>1906</v>
       </c>
       <c r="I27" s="7">
-        <v>1985644</v>
+        <v>1985643</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>106</v>
